--- a/biology/Zoologie/Erinnyis_oenotrus/Erinnyis_oenotrus.xlsx
+++ b/biology/Zoologie/Erinnyis_oenotrus/Erinnyis_oenotrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erinnyis oenotrus est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini, de la sous-tribu des Dilophonotina et du genre Erinnyis.  
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La face inférieure de l'abdomen a deux taches noires. Les ailes antérieures du mâle sont brun foncé, tandis celles de la femelle sont grises avec des marques brunes tachetées.
 Envergure : 7,3 à 8,6 cm
@@ -545,9 +559,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se développement sur les Apocynaceae[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se développement sur les Apocynaceae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Erinnyis oenotrus vole dans les plaines tropicales et subtropicales[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erinnyis oenotrus vole dans les plaines tropicales et subtropicales
 Argentine : Buenos Aires, Córdoba, Jujuy, Misiones, Salta, Tucuman ;
 Brésil : Mato Grosso ;
 Bolivie : Beni, La Paz, Cochabamba, Santa Cruz ;
@@ -613,15 +631,51 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Erinnyis oenotrus a été décrite par l'entomologiste hollandais Pieter Cramer, en 1780[3], sous le nom initial de Sphinx oenotrus.
-Synonymie
-Sphinx oenotrus (Cramer, 1780) Protonyme
-Sphinx penaeus Fabricius, 1787[4]
-Erinnyis melancholica Grote, 1865[5]
-Anceryx piperis Grote &amp; Robinson, 1868[6]
-Dilophonota hippothoon Burmeister, 1878[7]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Erinnyis oenotrus a été décrite par l'entomologiste hollandais Pieter Cramer, en 1780, sous le nom initial de Sphinx oenotrus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erinnyis_oenotrus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erinnyis_oenotrus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx oenotrus (Cramer, 1780) Protonyme
+Sphinx penaeus Fabricius, 1787
+Erinnyis melancholica Grote, 1865
+Anceryx piperis Grote &amp; Robinson, 1868
+Dilophonota hippothoon Burmeister, 1878</t>
         </is>
       </c>
     </row>
